--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-03T17:40:42+00:00</t>
+    <t>2024-12-04T09:18:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:18:19+00:00</t>
+    <t>2024-12-04T09:49:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T09:49:47+00:00</t>
+    <t>2024-12-04T11:23:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T11:23:03+00:00</t>
+    <t>2024-12-04T13:30:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-04T13:30:21+00:00</t>
+    <t>2024-12-05T17:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-05T17:47:14+00:00</t>
+    <t>2024-12-06T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T16:44:21+00:00</t>
+    <t>2024-12-06T17:37:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-06T17:37:38+00:00</t>
+    <t>2024-12-06T18:08:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:32:50+00:00</t>
+    <t>2024-12-09T16:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T16:49:27+00:00</t>
+    <t>2024-12-09T17:27:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:27:37+00:00</t>
+    <t>2024-12-09T17:49:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T17:49:22+00:00</t>
+    <t>2024-12-09T18:09:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09T18:09:54+00:00</t>
+    <t>2024-12-10T08:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
+++ b/patch-exemples-saisie-offre/ig/ValueSet-ror-usage-context-type-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T08:23:40+00:00</t>
+    <t>2024-12-10T13:59:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
